--- a/NYC_review_data.xlsx
+++ b/NYC_review_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1261">
   <si>
     <t>User Name</t>
   </si>
@@ -1385,21 +1385,6 @@
   </si>
   <si>
     <t>Winnipeg, Canada</t>
-  </si>
-  <si>
-    <t>bubble_10</t>
-  </si>
-  <si>
-    <t>bubble_30</t>
-  </si>
-  <si>
-    <t>bubble_50</t>
-  </si>
-  <si>
-    <t>bubble_40</t>
-  </si>
-  <si>
-    <t>bubble_20</t>
   </si>
   <si>
     <t>April 18, 2019</t>
@@ -4214,17 +4199,17 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>457</v>
       </c>
-      <c r="E2" t="s">
-        <v>462</v>
-      </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4237,17 +4222,17 @@
       <c r="C3" t="s">
         <v>287</v>
       </c>
-      <c r="D3" t="s">
-        <v>457</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4260,17 +4245,17 @@
       <c r="C4" t="s">
         <v>288</v>
       </c>
-      <c r="D4" t="s">
-        <v>458</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4283,17 +4268,17 @@
       <c r="C5" t="s">
         <v>289</v>
       </c>
-      <c r="D5" t="s">
-        <v>459</v>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G5" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4306,17 +4291,17 @@
       <c r="C6" t="s">
         <v>290</v>
       </c>
-      <c r="D6" t="s">
-        <v>458</v>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G6" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4329,17 +4314,17 @@
       <c r="C7" t="s">
         <v>291</v>
       </c>
-      <c r="D7" t="s">
-        <v>459</v>
+      <c r="D7">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G7" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4352,17 +4337,17 @@
       <c r="C8" t="s">
         <v>292</v>
       </c>
-      <c r="D8" t="s">
-        <v>458</v>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F8" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G8" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4372,17 +4357,17 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>457</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G9" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4395,17 +4380,17 @@
       <c r="C10" t="s">
         <v>293</v>
       </c>
-      <c r="D10" t="s">
-        <v>457</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G10" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4418,17 +4403,17 @@
       <c r="C11" t="s">
         <v>294</v>
       </c>
-      <c r="D11" t="s">
-        <v>457</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G11" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4441,17 +4426,17 @@
       <c r="C12" t="s">
         <v>295</v>
       </c>
-      <c r="D12" t="s">
-        <v>459</v>
+      <c r="D12">
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F12" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G12" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4464,17 +4449,17 @@
       <c r="C13" t="s">
         <v>296</v>
       </c>
-      <c r="D13" t="s">
-        <v>457</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F13" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G13" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4484,17 +4469,17 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>460</v>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F14" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G14" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4507,17 +4492,17 @@
       <c r="C15" t="s">
         <v>297</v>
       </c>
-      <c r="D15" t="s">
-        <v>459</v>
+      <c r="D15">
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F15" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G15" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4527,17 +4512,17 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>459</v>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F16" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G16" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4550,17 +4535,17 @@
       <c r="C17" t="s">
         <v>298</v>
       </c>
-      <c r="D17" t="s">
-        <v>459</v>
+      <c r="D17">
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F17" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G17" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4573,17 +4558,17 @@
       <c r="C18" t="s">
         <v>299</v>
       </c>
-      <c r="D18" t="s">
-        <v>459</v>
+      <c r="D18">
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F18" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G18" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4593,17 +4578,17 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>459</v>
+      <c r="D19">
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F19" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G19" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4616,17 +4601,17 @@
       <c r="C20" t="s">
         <v>300</v>
       </c>
-      <c r="D20" t="s">
-        <v>459</v>
+      <c r="D20">
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G20" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4639,17 +4624,17 @@
       <c r="C21" t="s">
         <v>301</v>
       </c>
-      <c r="D21" t="s">
-        <v>458</v>
+      <c r="D21">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G21" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4662,17 +4647,17 @@
       <c r="C22" t="s">
         <v>302</v>
       </c>
-      <c r="D22" t="s">
-        <v>459</v>
+      <c r="D22">
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F22" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G22" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4685,17 +4670,17 @@
       <c r="C23" t="s">
         <v>302</v>
       </c>
-      <c r="D23" t="s">
-        <v>459</v>
+      <c r="D23">
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F23" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G23" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4708,17 +4693,17 @@
       <c r="C24" t="s">
         <v>303</v>
       </c>
-      <c r="D24" t="s">
-        <v>461</v>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G24" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4731,17 +4716,17 @@
       <c r="C25" t="s">
         <v>302</v>
       </c>
-      <c r="D25" t="s">
-        <v>458</v>
+      <c r="D25">
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G25" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4754,17 +4739,17 @@
       <c r="C26" t="s">
         <v>304</v>
       </c>
-      <c r="D26" t="s">
-        <v>460</v>
+      <c r="D26">
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F26" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G26" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4777,17 +4762,17 @@
       <c r="C27" t="s">
         <v>305</v>
       </c>
-      <c r="D27" t="s">
-        <v>457</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F27" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G27" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4800,17 +4785,17 @@
       <c r="C28" t="s">
         <v>291</v>
       </c>
-      <c r="D28" t="s">
-        <v>457</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F28" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G28" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4823,17 +4808,17 @@
       <c r="C29" t="s">
         <v>302</v>
       </c>
-      <c r="D29" t="s">
-        <v>459</v>
+      <c r="D29">
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F29" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G29" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4846,17 +4831,17 @@
       <c r="C30" t="s">
         <v>306</v>
       </c>
-      <c r="D30" t="s">
-        <v>459</v>
+      <c r="D30">
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G30" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4869,17 +4854,17 @@
       <c r="C31" t="s">
         <v>307</v>
       </c>
-      <c r="D31" t="s">
-        <v>460</v>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F31" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G31" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4889,17 +4874,17 @@
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
-        <v>459</v>
+      <c r="D32">
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F32" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G32" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4909,17 +4894,17 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="s">
-        <v>459</v>
+      <c r="D33">
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F33" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G33" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4929,17 +4914,17 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" t="s">
-        <v>457</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F34" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G34" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4949,17 +4934,17 @@
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" t="s">
-        <v>457</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F35" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G35" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4972,17 +4957,17 @@
       <c r="C36" t="s">
         <v>308</v>
       </c>
-      <c r="D36" t="s">
-        <v>459</v>
+      <c r="D36">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F36" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G36" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4995,17 +4980,17 @@
       <c r="C37" t="s">
         <v>309</v>
       </c>
-      <c r="D37" t="s">
-        <v>460</v>
+      <c r="D37">
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F37" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G37" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5015,17 +5000,17 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
-        <v>460</v>
+      <c r="D38">
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F38" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G38" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5035,17 +5020,17 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
-        <v>458</v>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F39" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G39" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5058,17 +5043,17 @@
       <c r="C40" t="s">
         <v>310</v>
       </c>
-      <c r="D40" t="s">
-        <v>457</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F40" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G40" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5081,17 +5066,17 @@
       <c r="C41" t="s">
         <v>311</v>
       </c>
-      <c r="D41" t="s">
-        <v>459</v>
+      <c r="D41">
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F41" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G41" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5104,17 +5089,17 @@
       <c r="C42" t="s">
         <v>312</v>
       </c>
-      <c r="D42" t="s">
-        <v>457</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F42" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G42" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5127,17 +5112,17 @@
       <c r="C43" t="s">
         <v>313</v>
       </c>
-      <c r="D43" t="s">
-        <v>457</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F43" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G43" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5150,17 +5135,17 @@
       <c r="C44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
-        <v>461</v>
+      <c r="D44">
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F44" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G44" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5173,17 +5158,17 @@
       <c r="C45" t="s">
         <v>314</v>
       </c>
-      <c r="D45" t="s">
-        <v>457</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F45" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G45" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5196,17 +5181,17 @@
       <c r="C46" t="s">
         <v>315</v>
       </c>
-      <c r="D46" t="s">
-        <v>460</v>
+      <c r="D46">
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F46" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G46" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5219,17 +5204,17 @@
       <c r="C47" t="s">
         <v>316</v>
       </c>
-      <c r="D47" t="s">
-        <v>458</v>
+      <c r="D47">
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F47" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G47" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5242,17 +5227,17 @@
       <c r="C48" t="s">
         <v>302</v>
       </c>
-      <c r="D48" t="s">
-        <v>457</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G48" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5265,17 +5250,17 @@
       <c r="C49" t="s">
         <v>317</v>
       </c>
-      <c r="D49" t="s">
-        <v>458</v>
+      <c r="D49">
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G49" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5285,17 +5270,17 @@
       <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" t="s">
-        <v>457</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F50" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G50" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5308,17 +5293,17 @@
       <c r="C51" t="s">
         <v>318</v>
       </c>
-      <c r="D51" t="s">
-        <v>457</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F51" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G51" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5331,17 +5316,17 @@
       <c r="C52" t="s">
         <v>319</v>
       </c>
-      <c r="D52" t="s">
-        <v>457</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F52" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G52" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5354,17 +5339,17 @@
       <c r="C53" t="s">
         <v>320</v>
       </c>
-      <c r="D53" t="s">
-        <v>457</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F53" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G53" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5377,17 +5362,17 @@
       <c r="C54" t="s">
         <v>321</v>
       </c>
-      <c r="D54" t="s">
-        <v>460</v>
+      <c r="D54">
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F54" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G54" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5400,17 +5385,17 @@
       <c r="C55" t="s">
         <v>303</v>
       </c>
-      <c r="D55" t="s">
-        <v>458</v>
+      <c r="D55">
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F55" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G55" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5423,17 +5408,17 @@
       <c r="C56" t="s">
         <v>322</v>
       </c>
-      <c r="D56" t="s">
-        <v>458</v>
+      <c r="D56">
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F56" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G56" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5446,17 +5431,17 @@
       <c r="C57" t="s">
         <v>323</v>
       </c>
-      <c r="D57" t="s">
-        <v>457</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F57" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G57" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5466,17 +5451,17 @@
       <c r="B58" t="s">
         <v>62</v>
       </c>
-      <c r="D58" t="s">
-        <v>459</v>
+      <c r="D58">
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G58" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5489,17 +5474,17 @@
       <c r="C59" t="s">
         <v>291</v>
       </c>
-      <c r="D59" t="s">
-        <v>457</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F59" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G59" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5509,17 +5494,17 @@
       <c r="B60" t="s">
         <v>64</v>
       </c>
-      <c r="D60" t="s">
-        <v>457</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F60" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G60" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5532,17 +5517,17 @@
       <c r="C61" t="s">
         <v>324</v>
       </c>
-      <c r="D61" t="s">
-        <v>457</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F61" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G61" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5555,17 +5540,17 @@
       <c r="C62" t="s">
         <v>325</v>
       </c>
-      <c r="D62" t="s">
-        <v>457</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F62" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G62" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5575,17 +5560,17 @@
       <c r="B63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" t="s">
-        <v>458</v>
+      <c r="D63">
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F63" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G63" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5598,17 +5583,17 @@
       <c r="C64" t="s">
         <v>326</v>
       </c>
-      <c r="D64" t="s">
-        <v>457</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F64" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G64" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5618,17 +5603,17 @@
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
-        <v>460</v>
+      <c r="D65">
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F65" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G65" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5638,17 +5623,17 @@
       <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" t="s">
-        <v>459</v>
+      <c r="D66">
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F66" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G66" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5661,17 +5646,17 @@
       <c r="C67" t="s">
         <v>327</v>
       </c>
-      <c r="D67" t="s">
-        <v>459</v>
+      <c r="D67">
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F67" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G67" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5684,17 +5669,17 @@
       <c r="C68" t="s">
         <v>328</v>
       </c>
-      <c r="D68" t="s">
-        <v>459</v>
+      <c r="D68">
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F68" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G68" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5707,17 +5692,17 @@
       <c r="C69" t="s">
         <v>312</v>
       </c>
-      <c r="D69" t="s">
-        <v>459</v>
+      <c r="D69">
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F69" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G69" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5727,17 +5712,17 @@
       <c r="B70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" t="s">
-        <v>457</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F70" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G70" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5750,17 +5735,17 @@
       <c r="C71" t="s">
         <v>302</v>
       </c>
-      <c r="D71" t="s">
-        <v>457</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F71" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G71" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5773,17 +5758,17 @@
       <c r="C72" t="s">
         <v>329</v>
       </c>
-      <c r="D72" t="s">
-        <v>459</v>
+      <c r="D72">
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F72" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G72" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5793,17 +5778,17 @@
       <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" t="s">
-        <v>459</v>
+      <c r="D73">
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F73" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G73" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5816,17 +5801,17 @@
       <c r="C74" t="s">
         <v>330</v>
       </c>
-      <c r="D74" t="s">
-        <v>459</v>
+      <c r="D74">
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F74" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G74" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5836,17 +5821,17 @@
       <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="D75" t="s">
-        <v>457</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F75" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G75" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5856,17 +5841,17 @@
       <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" t="s">
-        <v>459</v>
+      <c r="D76">
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F76" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G76" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5876,17 +5861,17 @@
       <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="D77" t="s">
-        <v>457</v>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F77" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G77" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5899,17 +5884,17 @@
       <c r="C78" t="s">
         <v>331</v>
       </c>
-      <c r="D78" t="s">
-        <v>457</v>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F78" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G78" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5922,17 +5907,17 @@
       <c r="C79" t="s">
         <v>332</v>
       </c>
-      <c r="D79" t="s">
-        <v>459</v>
+      <c r="D79">
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F79" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G79" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5942,17 +5927,17 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="D80" t="s">
-        <v>460</v>
+      <c r="D80">
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F80" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G80" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5965,17 +5950,17 @@
       <c r="C81" t="s">
         <v>333</v>
       </c>
-      <c r="D81" t="s">
-        <v>459</v>
+      <c r="D81">
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F81" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G81" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5985,17 +5970,17 @@
       <c r="B82" t="s">
         <v>86</v>
       </c>
-      <c r="D82" t="s">
-        <v>458</v>
+      <c r="D82">
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F82" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G82" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6008,17 +5993,17 @@
       <c r="C83" t="s">
         <v>334</v>
       </c>
-      <c r="D83" t="s">
-        <v>459</v>
+      <c r="D83">
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F83" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G83" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6031,17 +6016,17 @@
       <c r="C84" t="s">
         <v>335</v>
       </c>
-      <c r="D84" t="s">
-        <v>460</v>
+      <c r="D84">
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F84" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G84" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6054,17 +6039,17 @@
       <c r="C85" t="s">
         <v>336</v>
       </c>
-      <c r="D85" t="s">
-        <v>461</v>
+      <c r="D85">
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F85" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G85" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6074,17 +6059,17 @@
       <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="D86" t="s">
-        <v>457</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F86" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G86" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6097,17 +6082,17 @@
       <c r="C87" t="s">
         <v>337</v>
       </c>
-      <c r="D87" t="s">
-        <v>460</v>
+      <c r="D87">
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F87" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G87" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6120,17 +6105,17 @@
       <c r="C88" t="s">
         <v>302</v>
       </c>
-      <c r="D88" t="s">
-        <v>459</v>
+      <c r="D88">
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F88" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G88" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6140,17 +6125,17 @@
       <c r="B89" t="s">
         <v>93</v>
       </c>
-      <c r="D89" t="s">
-        <v>459</v>
+      <c r="D89">
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F89" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G89" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6163,17 +6148,17 @@
       <c r="C90" t="s">
         <v>338</v>
       </c>
-      <c r="D90" t="s">
-        <v>459</v>
+      <c r="D90">
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F90" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G90" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6186,17 +6171,17 @@
       <c r="C91" t="s">
         <v>339</v>
       </c>
-      <c r="D91" t="s">
-        <v>459</v>
+      <c r="D91">
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F91" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G91" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6206,17 +6191,17 @@
       <c r="B92" t="s">
         <v>96</v>
       </c>
-      <c r="D92" t="s">
-        <v>459</v>
+      <c r="D92">
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F92" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G92" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6229,17 +6214,17 @@
       <c r="C93" t="s">
         <v>340</v>
       </c>
-      <c r="D93" t="s">
-        <v>460</v>
+      <c r="D93">
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F93" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G93" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6252,17 +6237,17 @@
       <c r="C94" t="s">
         <v>341</v>
       </c>
-      <c r="D94" t="s">
-        <v>459</v>
+      <c r="D94">
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F94" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G94" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6272,17 +6257,17 @@
       <c r="B95" t="s">
         <v>99</v>
       </c>
-      <c r="D95" t="s">
-        <v>457</v>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F95" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G95" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6295,17 +6280,17 @@
       <c r="C96" t="s">
         <v>342</v>
       </c>
-      <c r="D96" t="s">
-        <v>461</v>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F96" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G96" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6318,17 +6303,17 @@
       <c r="C97" t="s">
         <v>343</v>
       </c>
-      <c r="D97" t="s">
-        <v>459</v>
+      <c r="D97">
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F97" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G97" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6341,17 +6326,17 @@
       <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="D98" t="s">
-        <v>459</v>
+      <c r="D98">
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F98" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G98" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6364,17 +6349,17 @@
       <c r="C99" t="s">
         <v>344</v>
       </c>
-      <c r="D99" t="s">
-        <v>461</v>
+      <c r="D99">
+        <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F99" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G99" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6387,17 +6372,17 @@
       <c r="C100" t="s">
         <v>345</v>
       </c>
-      <c r="D100" t="s">
-        <v>459</v>
+      <c r="D100">
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F100" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G100" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6410,17 +6395,17 @@
       <c r="C101" t="s">
         <v>346</v>
       </c>
-      <c r="D101" t="s">
-        <v>457</v>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F101" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G101" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6430,17 +6415,17 @@
       <c r="B102" t="s">
         <v>106</v>
       </c>
-      <c r="D102" t="s">
-        <v>457</v>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F102" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G102" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6450,17 +6435,17 @@
       <c r="B103" t="s">
         <v>107</v>
       </c>
-      <c r="D103" t="s">
-        <v>457</v>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F103" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G103" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6473,17 +6458,17 @@
       <c r="C104" t="s">
         <v>296</v>
       </c>
-      <c r="D104" t="s">
-        <v>461</v>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G104" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6496,17 +6481,17 @@
       <c r="C105" t="s">
         <v>347</v>
       </c>
-      <c r="D105" t="s">
-        <v>459</v>
+      <c r="D105">
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F105" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G105" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6519,17 +6504,17 @@
       <c r="C106" t="s">
         <v>348</v>
       </c>
-      <c r="D106" t="s">
-        <v>459</v>
+      <c r="D106">
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F106" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G106" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6542,17 +6527,17 @@
       <c r="C107" t="s">
         <v>349</v>
       </c>
-      <c r="D107" t="s">
-        <v>459</v>
+      <c r="D107">
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F107" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G107" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6565,17 +6550,17 @@
       <c r="C108" t="s">
         <v>350</v>
       </c>
-      <c r="D108" t="s">
-        <v>459</v>
+      <c r="D108">
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F108" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G108" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6588,17 +6573,17 @@
       <c r="C109" t="s">
         <v>351</v>
       </c>
-      <c r="D109" t="s">
-        <v>457</v>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F109" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G109" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6611,17 +6596,17 @@
       <c r="C110" t="s">
         <v>352</v>
       </c>
-      <c r="D110" t="s">
-        <v>461</v>
+      <c r="D110">
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F110" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G110" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -6631,17 +6616,17 @@
       <c r="B111" t="s">
         <v>115</v>
       </c>
-      <c r="D111" t="s">
-        <v>461</v>
+      <c r="D111">
+        <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F111" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G111" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -6651,17 +6636,17 @@
       <c r="B112" t="s">
         <v>116</v>
       </c>
-      <c r="D112" t="s">
-        <v>460</v>
+      <c r="D112">
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F112" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G112" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6671,17 +6656,17 @@
       <c r="B113" t="s">
         <v>117</v>
       </c>
-      <c r="D113" t="s">
-        <v>459</v>
+      <c r="D113">
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F113" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G113" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6694,17 +6679,17 @@
       <c r="C114" t="s">
         <v>353</v>
       </c>
-      <c r="D114" t="s">
-        <v>460</v>
+      <c r="D114">
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F114" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G114" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6717,17 +6702,17 @@
       <c r="C115" t="s">
         <v>302</v>
       </c>
-      <c r="D115" t="s">
-        <v>459</v>
+      <c r="D115">
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F115" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G115" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6740,17 +6725,17 @@
       <c r="C116" t="s">
         <v>354</v>
       </c>
-      <c r="D116" t="s">
-        <v>458</v>
+      <c r="D116">
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F116" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G116" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6763,17 +6748,17 @@
       <c r="C117" t="s">
         <v>355</v>
       </c>
-      <c r="D117" t="s">
-        <v>458</v>
+      <c r="D117">
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F117" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G117" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6786,17 +6771,17 @@
       <c r="C118" t="s">
         <v>302</v>
       </c>
-      <c r="D118" t="s">
-        <v>460</v>
+      <c r="D118">
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F118" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G118" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6809,17 +6794,17 @@
       <c r="C119" t="s">
         <v>356</v>
       </c>
-      <c r="D119" t="s">
-        <v>459</v>
+      <c r="D119">
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F119" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G119" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6832,17 +6817,17 @@
       <c r="C120" t="s">
         <v>357</v>
       </c>
-      <c r="D120" t="s">
-        <v>459</v>
+      <c r="D120">
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F120" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G120" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6855,17 +6840,17 @@
       <c r="C121" t="s">
         <v>358</v>
       </c>
-      <c r="D121" t="s">
-        <v>459</v>
+      <c r="D121">
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F121" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G121" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6878,17 +6863,17 @@
       <c r="C122" t="s">
         <v>359</v>
       </c>
-      <c r="D122" t="s">
-        <v>459</v>
+      <c r="D122">
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F122" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G122" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6901,17 +6886,17 @@
       <c r="C123" t="s">
         <v>360</v>
       </c>
-      <c r="D123" t="s">
-        <v>457</v>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F123" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G123" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6921,17 +6906,17 @@
       <c r="B124" t="s">
         <v>128</v>
       </c>
-      <c r="D124" t="s">
-        <v>457</v>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F124" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G124" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6944,17 +6929,17 @@
       <c r="C125" t="s">
         <v>361</v>
       </c>
-      <c r="D125" t="s">
-        <v>457</v>
+      <c r="D125">
+        <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F125" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G125" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6967,17 +6952,17 @@
       <c r="C126" t="s">
         <v>362</v>
       </c>
-      <c r="D126" t="s">
-        <v>457</v>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F126" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G126" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6990,17 +6975,17 @@
       <c r="C127" t="s">
         <v>363</v>
       </c>
-      <c r="D127" t="s">
-        <v>460</v>
+      <c r="D127">
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F127" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G127" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -7013,17 +6998,17 @@
       <c r="C128" t="s">
         <v>364</v>
       </c>
-      <c r="D128" t="s">
-        <v>460</v>
+      <c r="D128">
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F128" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G128" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7033,17 +7018,17 @@
       <c r="B129" t="s">
         <v>133</v>
       </c>
-      <c r="D129" t="s">
-        <v>459</v>
+      <c r="D129">
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F129" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G129" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7056,17 +7041,17 @@
       <c r="C130" t="s">
         <v>365</v>
       </c>
-      <c r="D130" t="s">
-        <v>458</v>
+      <c r="D130">
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F130" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G130" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7076,17 +7061,17 @@
       <c r="B131" t="s">
         <v>135</v>
       </c>
-      <c r="D131" t="s">
-        <v>459</v>
+      <c r="D131">
+        <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F131" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G131" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7099,17 +7084,17 @@
       <c r="C132" t="s">
         <v>320</v>
       </c>
-      <c r="D132" t="s">
-        <v>459</v>
+      <c r="D132">
+        <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F132" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G132" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7122,17 +7107,17 @@
       <c r="C133" t="s">
         <v>302</v>
       </c>
-      <c r="D133" t="s">
-        <v>459</v>
+      <c r="D133">
+        <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F133" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G133" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7145,17 +7130,17 @@
       <c r="C134" t="s">
         <v>320</v>
       </c>
-      <c r="D134" t="s">
-        <v>459</v>
+      <c r="D134">
+        <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F134" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G134" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7168,17 +7153,17 @@
       <c r="C135" t="s">
         <v>302</v>
       </c>
-      <c r="D135" t="s">
-        <v>459</v>
+      <c r="D135">
+        <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F135" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G135" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7191,17 +7176,17 @@
       <c r="C136" t="s">
         <v>366</v>
       </c>
-      <c r="D136" t="s">
-        <v>457</v>
+      <c r="D136">
+        <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F136" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G136" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7214,17 +7199,17 @@
       <c r="C137" t="s">
         <v>367</v>
       </c>
-      <c r="D137" t="s">
-        <v>457</v>
+      <c r="D137">
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F137" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G137" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7237,17 +7222,17 @@
       <c r="C138" t="s">
         <v>368</v>
       </c>
-      <c r="D138" t="s">
-        <v>458</v>
+      <c r="D138">
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F138" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G138" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7260,17 +7245,17 @@
       <c r="C139" t="s">
         <v>369</v>
       </c>
-      <c r="D139" t="s">
-        <v>457</v>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F139" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G139" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7283,17 +7268,17 @@
       <c r="C140" t="s">
         <v>370</v>
       </c>
-      <c r="D140" t="s">
-        <v>459</v>
+      <c r="D140">
+        <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F140" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G140" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7306,17 +7291,17 @@
       <c r="C141" t="s">
         <v>371</v>
       </c>
-      <c r="D141" t="s">
-        <v>457</v>
+      <c r="D141">
+        <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F141" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G141" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7329,17 +7314,17 @@
       <c r="C142" t="s">
         <v>372</v>
       </c>
-      <c r="D142" t="s">
-        <v>459</v>
+      <c r="D142">
+        <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F142" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G142" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -7352,17 +7337,17 @@
       <c r="C143" t="s">
         <v>373</v>
       </c>
-      <c r="D143" t="s">
-        <v>459</v>
+      <c r="D143">
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F143" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G143" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -7372,17 +7357,17 @@
       <c r="B144" t="s">
         <v>148</v>
       </c>
-      <c r="D144" t="s">
-        <v>457</v>
+      <c r="D144">
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F144" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G144" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -7395,17 +7380,17 @@
       <c r="C145" t="s">
         <v>374</v>
       </c>
-      <c r="D145" t="s">
-        <v>461</v>
+      <c r="D145">
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F145" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G145" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -7415,17 +7400,17 @@
       <c r="B146" t="s">
         <v>150</v>
       </c>
-      <c r="D146" t="s">
-        <v>457</v>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F146" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G146" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -7435,17 +7420,17 @@
       <c r="B147" t="s">
         <v>151</v>
       </c>
-      <c r="D147" t="s">
-        <v>457</v>
+      <c r="D147">
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F147" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G147" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -7455,17 +7440,17 @@
       <c r="B148" t="s">
         <v>152</v>
       </c>
-      <c r="D148" t="s">
-        <v>457</v>
+      <c r="D148">
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F148" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G148" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7478,17 +7463,17 @@
       <c r="C149" t="s">
         <v>375</v>
       </c>
-      <c r="D149" t="s">
-        <v>460</v>
+      <c r="D149">
+        <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F149" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G149" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7501,17 +7486,17 @@
       <c r="C150" t="s">
         <v>376</v>
       </c>
-      <c r="D150" t="s">
-        <v>459</v>
+      <c r="D150">
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F150" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G150" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -7524,17 +7509,17 @@
       <c r="C151" t="s">
         <v>377</v>
       </c>
-      <c r="D151" t="s">
-        <v>459</v>
+      <c r="D151">
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F151" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G151" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -7547,17 +7532,17 @@
       <c r="C152" t="s">
         <v>378</v>
       </c>
-      <c r="D152" t="s">
-        <v>458</v>
+      <c r="D152">
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F152" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G152" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -7570,17 +7555,17 @@
       <c r="C153" t="s">
         <v>302</v>
       </c>
-      <c r="D153" t="s">
-        <v>457</v>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F153" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G153" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7593,17 +7578,17 @@
       <c r="C154" t="s">
         <v>302</v>
       </c>
-      <c r="D154" t="s">
-        <v>459</v>
+      <c r="D154">
+        <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G154" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7613,17 +7598,17 @@
       <c r="B155" t="s">
         <v>159</v>
       </c>
-      <c r="D155" t="s">
-        <v>459</v>
+      <c r="D155">
+        <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F155" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G155" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7636,17 +7621,17 @@
       <c r="C156" t="s">
         <v>379</v>
       </c>
-      <c r="D156" t="s">
-        <v>459</v>
+      <c r="D156">
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F156" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G156" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -7659,17 +7644,17 @@
       <c r="C157" t="s">
         <v>380</v>
       </c>
-      <c r="D157" t="s">
-        <v>457</v>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F157" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G157" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7682,17 +7667,17 @@
       <c r="C158" t="s">
         <v>381</v>
       </c>
-      <c r="D158" t="s">
-        <v>459</v>
+      <c r="D158">
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F158" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G158" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7702,17 +7687,17 @@
       <c r="B159" t="s">
         <v>163</v>
       </c>
-      <c r="D159" t="s">
-        <v>459</v>
+      <c r="D159">
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F159" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G159" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7725,17 +7710,17 @@
       <c r="C160" t="s">
         <v>382</v>
       </c>
-      <c r="D160" t="s">
-        <v>457</v>
+      <c r="D160">
+        <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F160" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G160" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7745,17 +7730,17 @@
       <c r="B161" t="s">
         <v>165</v>
       </c>
-      <c r="D161" t="s">
-        <v>459</v>
+      <c r="D161">
+        <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F161" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G161" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7768,17 +7753,17 @@
       <c r="C162" t="s">
         <v>383</v>
       </c>
-      <c r="D162" t="s">
-        <v>458</v>
+      <c r="D162">
+        <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F162" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G162" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7791,17 +7776,17 @@
       <c r="C163" t="s">
         <v>384</v>
       </c>
-      <c r="D163" t="s">
-        <v>458</v>
+      <c r="D163">
+        <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F163" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G163" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -7814,17 +7799,17 @@
       <c r="C164" t="s">
         <v>329</v>
       </c>
-      <c r="D164" t="s">
-        <v>460</v>
+      <c r="D164">
+        <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F164" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G164" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -7837,17 +7822,17 @@
       <c r="C165" t="s">
         <v>340</v>
       </c>
-      <c r="D165" t="s">
-        <v>457</v>
+      <c r="D165">
+        <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F165" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G165" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7860,17 +7845,17 @@
       <c r="C166" t="s">
         <v>385</v>
       </c>
-      <c r="D166" t="s">
-        <v>461</v>
+      <c r="D166">
+        <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F166" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G166" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7883,17 +7868,17 @@
       <c r="C167" t="s">
         <v>386</v>
       </c>
-      <c r="D167" t="s">
-        <v>459</v>
+      <c r="D167">
+        <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F167" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G167" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7906,17 +7891,17 @@
       <c r="C168" t="s">
         <v>387</v>
       </c>
-      <c r="D168" t="s">
-        <v>460</v>
+      <c r="D168">
+        <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F168" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G168" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -7926,17 +7911,17 @@
       <c r="B169" t="s">
         <v>173</v>
       </c>
-      <c r="D169" t="s">
-        <v>459</v>
+      <c r="D169">
+        <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F169" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G169" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -7949,17 +7934,17 @@
       <c r="C170" t="s">
         <v>388</v>
       </c>
-      <c r="D170" t="s">
-        <v>460</v>
+      <c r="D170">
+        <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F170" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G170" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7972,17 +7957,17 @@
       <c r="C171" t="s">
         <v>348</v>
       </c>
-      <c r="D171" t="s">
-        <v>457</v>
+      <c r="D171">
+        <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F171" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G171" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7995,17 +7980,17 @@
       <c r="C172" t="s">
         <v>348</v>
       </c>
-      <c r="D172" t="s">
-        <v>457</v>
+      <c r="D172">
+        <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F172" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G172" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -8018,17 +8003,17 @@
       <c r="C173" t="s">
         <v>389</v>
       </c>
-      <c r="D173" t="s">
-        <v>459</v>
+      <c r="D173">
+        <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F173" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G173" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -8038,17 +8023,17 @@
       <c r="B174" t="s">
         <v>178</v>
       </c>
-      <c r="D174" t="s">
-        <v>459</v>
+      <c r="D174">
+        <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F174" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G174" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -8061,17 +8046,17 @@
       <c r="C175" t="s">
         <v>390</v>
       </c>
-      <c r="D175" t="s">
-        <v>459</v>
+      <c r="D175">
+        <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F175" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G175" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -8084,17 +8069,17 @@
       <c r="C176" t="s">
         <v>391</v>
       </c>
-      <c r="D176" t="s">
-        <v>460</v>
+      <c r="D176">
+        <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F176" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G176" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -8107,17 +8092,17 @@
       <c r="C177" t="s">
         <v>392</v>
       </c>
-      <c r="D177" t="s">
-        <v>459</v>
+      <c r="D177">
+        <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F177" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G177" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -8130,17 +8115,17 @@
       <c r="C178" t="s">
         <v>297</v>
       </c>
-      <c r="D178" t="s">
-        <v>459</v>
+      <c r="D178">
+        <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F178" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G178" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -8153,17 +8138,17 @@
       <c r="C179" t="s">
         <v>393</v>
       </c>
-      <c r="D179" t="s">
-        <v>459</v>
+      <c r="D179">
+        <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F179" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G179" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -8176,17 +8161,17 @@
       <c r="C180" t="s">
         <v>302</v>
       </c>
-      <c r="D180" t="s">
-        <v>459</v>
+      <c r="D180">
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F180" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G180" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -8199,17 +8184,17 @@
       <c r="C181" t="s">
         <v>394</v>
       </c>
-      <c r="D181" t="s">
-        <v>460</v>
+      <c r="D181">
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F181" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G181" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -8222,17 +8207,17 @@
       <c r="C182" t="s">
         <v>395</v>
       </c>
-      <c r="D182" t="s">
-        <v>459</v>
+      <c r="D182">
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F182" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G182" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -8245,17 +8230,17 @@
       <c r="C183" t="s">
         <v>294</v>
       </c>
-      <c r="D183" t="s">
-        <v>460</v>
+      <c r="D183">
+        <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F183" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G183" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -8268,17 +8253,17 @@
       <c r="C184" t="s">
         <v>300</v>
       </c>
-      <c r="D184" t="s">
-        <v>460</v>
+      <c r="D184">
+        <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F184" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G184" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -8291,17 +8276,17 @@
       <c r="C185" t="s">
         <v>302</v>
       </c>
-      <c r="D185" t="s">
-        <v>459</v>
+      <c r="D185">
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F185" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G185" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -8311,17 +8296,17 @@
       <c r="B186" t="s">
         <v>189</v>
       </c>
-      <c r="D186" t="s">
-        <v>459</v>
+      <c r="D186">
+        <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F186" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G186" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -8334,17 +8319,17 @@
       <c r="C187" t="s">
         <v>303</v>
       </c>
-      <c r="D187" t="s">
-        <v>460</v>
+      <c r="D187">
+        <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F187" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G187" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -8357,17 +8342,17 @@
       <c r="C188" t="s">
         <v>396</v>
       </c>
-      <c r="D188" t="s">
-        <v>459</v>
+      <c r="D188">
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F188" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G188" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -8380,17 +8365,17 @@
       <c r="C189" t="s">
         <v>302</v>
       </c>
-      <c r="D189" t="s">
-        <v>459</v>
+      <c r="D189">
+        <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F189" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G189" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -8403,17 +8388,17 @@
       <c r="C190" t="s">
         <v>397</v>
       </c>
-      <c r="D190" t="s">
-        <v>459</v>
+      <c r="D190">
+        <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F190" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G190" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -8426,17 +8411,17 @@
       <c r="C191" t="s">
         <v>398</v>
       </c>
-      <c r="D191" t="s">
-        <v>460</v>
+      <c r="D191">
+        <v>4</v>
       </c>
       <c r="E191" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F191" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G191" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -8449,17 +8434,17 @@
       <c r="C192" t="s">
         <v>399</v>
       </c>
-      <c r="D192" t="s">
-        <v>459</v>
+      <c r="D192">
+        <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F192" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G192" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -8469,17 +8454,17 @@
       <c r="B193" t="s">
         <v>195</v>
       </c>
-      <c r="D193" t="s">
-        <v>457</v>
+      <c r="D193">
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F193" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G193" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -8492,17 +8477,17 @@
       <c r="C194" t="s">
         <v>329</v>
       </c>
-      <c r="D194" t="s">
-        <v>459</v>
+      <c r="D194">
+        <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F194" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G194" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -8515,17 +8500,17 @@
       <c r="C195" t="s">
         <v>302</v>
       </c>
-      <c r="D195" t="s">
-        <v>460</v>
+      <c r="D195">
+        <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F195" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G195" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -8538,17 +8523,17 @@
       <c r="C196" t="s">
         <v>400</v>
       </c>
-      <c r="D196" t="s">
-        <v>459</v>
+      <c r="D196">
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F196" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="G196" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -8561,17 +8546,17 @@
       <c r="C197" t="s">
         <v>401</v>
       </c>
-      <c r="D197" t="s">
-        <v>459</v>
+      <c r="D197">
+        <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F197" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G197" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -8584,17 +8569,17 @@
       <c r="C198" t="s">
         <v>402</v>
       </c>
-      <c r="D198" t="s">
-        <v>457</v>
+      <c r="D198">
+        <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F198" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="G198" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -8607,17 +8592,17 @@
       <c r="C199" t="s">
         <v>403</v>
       </c>
-      <c r="D199" t="s">
-        <v>460</v>
+      <c r="D199">
+        <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F199" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G199" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -8630,17 +8615,17 @@
       <c r="C200" t="s">
         <v>404</v>
       </c>
-      <c r="D200" t="s">
-        <v>460</v>
+      <c r="D200">
+        <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F200" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G200" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8653,17 +8638,17 @@
       <c r="C201" t="s">
         <v>405</v>
       </c>
-      <c r="D201" t="s">
-        <v>459</v>
+      <c r="D201">
+        <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F201" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G201" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8676,17 +8661,17 @@
       <c r="C202" t="s">
         <v>406</v>
       </c>
-      <c r="D202" t="s">
-        <v>457</v>
+      <c r="D202">
+        <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F202" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G202" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8699,17 +8684,17 @@
       <c r="C203" t="s">
         <v>407</v>
       </c>
-      <c r="D203" t="s">
-        <v>459</v>
+      <c r="D203">
+        <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F203" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G203" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8719,17 +8704,17 @@
       <c r="B204" t="s">
         <v>206</v>
       </c>
-      <c r="D204" t="s">
-        <v>460</v>
+      <c r="D204">
+        <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F204" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G204" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8742,17 +8727,17 @@
       <c r="C205" t="s">
         <v>408</v>
       </c>
-      <c r="D205" t="s">
-        <v>459</v>
+      <c r="D205">
+        <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F205" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G205" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8765,17 +8750,17 @@
       <c r="C206" t="s">
         <v>291</v>
       </c>
-      <c r="D206" t="s">
-        <v>459</v>
+      <c r="D206">
+        <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F206" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G206" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8788,17 +8773,17 @@
       <c r="C207" t="s">
         <v>337</v>
       </c>
-      <c r="D207" t="s">
-        <v>459</v>
+      <c r="D207">
+        <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F207" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G207" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8811,17 +8796,17 @@
       <c r="C208" t="s">
         <v>409</v>
       </c>
-      <c r="D208" t="s">
-        <v>460</v>
+      <c r="D208">
+        <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F208" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G208" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8831,17 +8816,17 @@
       <c r="B209" t="s">
         <v>211</v>
       </c>
-      <c r="D209" t="s">
-        <v>459</v>
+      <c r="D209">
+        <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F209" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G209" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8854,17 +8839,17 @@
       <c r="C210" t="s">
         <v>410</v>
       </c>
-      <c r="D210" t="s">
-        <v>459</v>
+      <c r="D210">
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F210" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G210" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8877,17 +8862,17 @@
       <c r="C211" t="s">
         <v>411</v>
       </c>
-      <c r="D211" t="s">
-        <v>459</v>
+      <c r="D211">
+        <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F211" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G211" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8900,17 +8885,17 @@
       <c r="C212" t="s">
         <v>302</v>
       </c>
-      <c r="D212" t="s">
-        <v>458</v>
+      <c r="D212">
+        <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F212" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G212" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8923,17 +8908,17 @@
       <c r="C213" t="s">
         <v>302</v>
       </c>
-      <c r="D213" t="s">
-        <v>458</v>
+      <c r="D213">
+        <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F213" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G213" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8946,17 +8931,17 @@
       <c r="C214" t="s">
         <v>412</v>
       </c>
-      <c r="D214" t="s">
-        <v>460</v>
+      <c r="D214">
+        <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F214" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G214" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8969,17 +8954,17 @@
       <c r="C215" t="s">
         <v>413</v>
       </c>
-      <c r="D215" t="s">
-        <v>460</v>
+      <c r="D215">
+        <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F215" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G215" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8992,17 +8977,17 @@
       <c r="C216" t="s">
         <v>414</v>
       </c>
-      <c r="D216" t="s">
-        <v>459</v>
+      <c r="D216">
+        <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F216" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G216" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -9012,17 +8997,17 @@
       <c r="B217" t="s">
         <v>43</v>
       </c>
-      <c r="D217" t="s">
-        <v>461</v>
+      <c r="D217">
+        <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F217" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G217" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9035,17 +9020,17 @@
       <c r="C218" t="s">
         <v>415</v>
       </c>
-      <c r="D218" t="s">
-        <v>459</v>
+      <c r="D218">
+        <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F218" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G218" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9055,17 +9040,17 @@
       <c r="B219" t="s">
         <v>220</v>
       </c>
-      <c r="D219" t="s">
-        <v>459</v>
+      <c r="D219">
+        <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F219" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G219" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -9078,17 +9063,17 @@
       <c r="C220" t="s">
         <v>416</v>
       </c>
-      <c r="D220" t="s">
-        <v>460</v>
+      <c r="D220">
+        <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F220" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G220" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9101,17 +9086,17 @@
       <c r="C221" t="s">
         <v>417</v>
       </c>
-      <c r="D221" t="s">
-        <v>459</v>
+      <c r="D221">
+        <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F221" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G221" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -9124,17 +9109,17 @@
       <c r="C222" t="s">
         <v>418</v>
       </c>
-      <c r="D222" t="s">
-        <v>458</v>
+      <c r="D222">
+        <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F222" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G222" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9147,17 +9132,17 @@
       <c r="C223" t="s">
         <v>419</v>
       </c>
-      <c r="D223" t="s">
-        <v>457</v>
+      <c r="D223">
+        <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F223" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G223" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -9170,17 +9155,17 @@
       <c r="C224" t="s">
         <v>420</v>
       </c>
-      <c r="D224" t="s">
-        <v>459</v>
+      <c r="D224">
+        <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F224" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="G224" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -9193,17 +9178,17 @@
       <c r="C225" t="s">
         <v>421</v>
       </c>
-      <c r="D225" t="s">
-        <v>459</v>
+      <c r="D225">
+        <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F225" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G225" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9213,17 +9198,17 @@
       <c r="B226" t="s">
         <v>227</v>
       </c>
-      <c r="D226" t="s">
-        <v>458</v>
+      <c r="D226">
+        <v>3</v>
       </c>
       <c r="E226" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F226" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G226" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -9236,17 +9221,17 @@
       <c r="C227" t="s">
         <v>372</v>
       </c>
-      <c r="D227" t="s">
-        <v>457</v>
+      <c r="D227">
+        <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F227" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G227" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -9259,17 +9244,17 @@
       <c r="C228" t="s">
         <v>422</v>
       </c>
-      <c r="D228" t="s">
-        <v>459</v>
+      <c r="D228">
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F228" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G228" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -9282,17 +9267,17 @@
       <c r="C229" t="s">
         <v>423</v>
       </c>
-      <c r="D229" t="s">
-        <v>460</v>
+      <c r="D229">
+        <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F229" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G229" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -9305,17 +9290,17 @@
       <c r="C230" t="s">
         <v>424</v>
       </c>
-      <c r="D230" t="s">
-        <v>458</v>
+      <c r="D230">
+        <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F230" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G230" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -9328,17 +9313,17 @@
       <c r="C231" t="s">
         <v>425</v>
       </c>
-      <c r="D231" t="s">
-        <v>457</v>
+      <c r="D231">
+        <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F231" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G231" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -9348,17 +9333,17 @@
       <c r="B232" t="s">
         <v>233</v>
       </c>
-      <c r="D232" t="s">
-        <v>459</v>
+      <c r="D232">
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F232" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G232" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -9371,17 +9356,17 @@
       <c r="C233" t="s">
         <v>426</v>
       </c>
-      <c r="D233" t="s">
-        <v>459</v>
+      <c r="D233">
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F233" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G233" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -9394,17 +9379,17 @@
       <c r="C234" t="s">
         <v>427</v>
       </c>
-      <c r="D234" t="s">
-        <v>459</v>
+      <c r="D234">
+        <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F234" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G234" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -9417,17 +9402,17 @@
       <c r="C235" t="s">
         <v>302</v>
       </c>
-      <c r="D235" t="s">
-        <v>459</v>
+      <c r="D235">
+        <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F235" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G235" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -9440,17 +9425,17 @@
       <c r="C236" t="s">
         <v>302</v>
       </c>
-      <c r="D236" t="s">
-        <v>460</v>
+      <c r="D236">
+        <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F236" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G236" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -9463,17 +9448,17 @@
       <c r="C237" t="s">
         <v>428</v>
       </c>
-      <c r="D237" t="s">
-        <v>459</v>
+      <c r="D237">
+        <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F237" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G237" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -9486,17 +9471,17 @@
       <c r="C238" t="s">
         <v>429</v>
       </c>
-      <c r="D238" t="s">
-        <v>459</v>
+      <c r="D238">
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F238" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G238" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -9506,17 +9491,17 @@
       <c r="B239" t="s">
         <v>240</v>
       </c>
-      <c r="D239" t="s">
-        <v>459</v>
+      <c r="D239">
+        <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F239" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G239" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -9529,17 +9514,17 @@
       <c r="C240" t="s">
         <v>302</v>
       </c>
-      <c r="D240" t="s">
-        <v>460</v>
+      <c r="D240">
+        <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F240" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G240" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -9552,17 +9537,17 @@
       <c r="C241" t="s">
         <v>430</v>
       </c>
-      <c r="D241" t="s">
-        <v>459</v>
+      <c r="D241">
+        <v>5</v>
       </c>
       <c r="E241" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F241" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G241" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -9572,17 +9557,17 @@
       <c r="B242" t="s">
         <v>243</v>
       </c>
-      <c r="D242" t="s">
-        <v>459</v>
+      <c r="D242">
+        <v>5</v>
       </c>
       <c r="E242" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F242" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G242" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -9595,17 +9580,17 @@
       <c r="C243" t="s">
         <v>431</v>
       </c>
-      <c r="D243" t="s">
-        <v>459</v>
+      <c r="D243">
+        <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F243" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="G243" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -9618,17 +9603,17 @@
       <c r="C244" t="s">
         <v>432</v>
       </c>
-      <c r="D244" t="s">
-        <v>459</v>
+      <c r="D244">
+        <v>5</v>
       </c>
       <c r="E244" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F244" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G244" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -9641,17 +9626,17 @@
       <c r="C245" t="s">
         <v>405</v>
       </c>
-      <c r="D245" t="s">
-        <v>459</v>
+      <c r="D245">
+        <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F245" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G245" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -9664,17 +9649,17 @@
       <c r="C246" t="s">
         <v>302</v>
       </c>
-      <c r="D246" t="s">
-        <v>459</v>
+      <c r="D246">
+        <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F246" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G246" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -9687,17 +9672,17 @@
       <c r="C247" t="s">
         <v>329</v>
       </c>
-      <c r="D247" t="s">
-        <v>459</v>
+      <c r="D247">
+        <v>5</v>
       </c>
       <c r="E247" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F247" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G247" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -9710,17 +9695,17 @@
       <c r="C248" t="s">
         <v>433</v>
       </c>
-      <c r="D248" t="s">
-        <v>460</v>
+      <c r="D248">
+        <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F248" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G248" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -9733,17 +9718,17 @@
       <c r="C249" t="s">
         <v>434</v>
       </c>
-      <c r="D249" t="s">
-        <v>459</v>
+      <c r="D249">
+        <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F249" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G249" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -9753,17 +9738,17 @@
       <c r="B250" t="s">
         <v>251</v>
       </c>
-      <c r="D250" t="s">
-        <v>457</v>
+      <c r="D250">
+        <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F250" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G250" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -9776,17 +9761,17 @@
       <c r="C251" t="s">
         <v>435</v>
       </c>
-      <c r="D251" t="s">
-        <v>457</v>
+      <c r="D251">
+        <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F251" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G251" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -9799,17 +9784,17 @@
       <c r="C252" t="s">
         <v>302</v>
       </c>
-      <c r="D252" t="s">
-        <v>460</v>
+      <c r="D252">
+        <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F252" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G252" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -9819,17 +9804,17 @@
       <c r="B253" t="s">
         <v>254</v>
       </c>
-      <c r="D253" t="s">
-        <v>460</v>
+      <c r="D253">
+        <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F253" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G253" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -9839,17 +9824,17 @@
       <c r="B254" t="s">
         <v>255</v>
       </c>
-      <c r="D254" t="s">
-        <v>457</v>
+      <c r="D254">
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F254" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G254" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9862,17 +9847,17 @@
       <c r="C255" t="s">
         <v>436</v>
       </c>
-      <c r="D255" t="s">
-        <v>461</v>
+      <c r="D255">
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F255" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="G255" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9885,17 +9870,17 @@
       <c r="C256" t="s">
         <v>437</v>
       </c>
-      <c r="D256" t="s">
-        <v>458</v>
+      <c r="D256">
+        <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F256" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G256" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -9905,17 +9890,17 @@
       <c r="B257" t="s">
         <v>258</v>
       </c>
-      <c r="D257" t="s">
-        <v>458</v>
+      <c r="D257">
+        <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F257" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G257" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9928,17 +9913,17 @@
       <c r="C258" t="s">
         <v>291</v>
       </c>
-      <c r="D258" t="s">
-        <v>458</v>
+      <c r="D258">
+        <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F258" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G258" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9951,17 +9936,17 @@
       <c r="C259" t="s">
         <v>438</v>
       </c>
-      <c r="D259" t="s">
-        <v>460</v>
+      <c r="D259">
+        <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F259" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="G259" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9974,17 +9959,17 @@
       <c r="C260" t="s">
         <v>439</v>
       </c>
-      <c r="D260" t="s">
-        <v>458</v>
+      <c r="D260">
+        <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F260" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G260" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9997,17 +9982,17 @@
       <c r="C261" t="s">
         <v>440</v>
       </c>
-      <c r="D261" t="s">
-        <v>457</v>
+      <c r="D261">
+        <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F261" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="G261" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10020,17 +10005,17 @@
       <c r="C262" t="s">
         <v>441</v>
       </c>
-      <c r="D262" t="s">
-        <v>459</v>
+      <c r="D262">
+        <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F262" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G262" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -10043,17 +10028,17 @@
       <c r="C263" t="s">
         <v>442</v>
       </c>
-      <c r="D263" t="s">
-        <v>459</v>
+      <c r="D263">
+        <v>5</v>
       </c>
       <c r="E263" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F263" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G263" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -10066,17 +10051,17 @@
       <c r="C264" t="s">
         <v>443</v>
       </c>
-      <c r="D264" t="s">
-        <v>461</v>
+      <c r="D264">
+        <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F264" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G264" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10089,17 +10074,17 @@
       <c r="C265" t="s">
         <v>444</v>
       </c>
-      <c r="D265" t="s">
-        <v>460</v>
+      <c r="D265">
+        <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F265" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G265" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -10112,17 +10097,17 @@
       <c r="C266" t="s">
         <v>445</v>
       </c>
-      <c r="D266" t="s">
-        <v>457</v>
+      <c r="D266">
+        <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F266" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="G266" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10132,17 +10117,17 @@
       <c r="B267" t="s">
         <v>268</v>
       </c>
-      <c r="D267" t="s">
-        <v>457</v>
+      <c r="D267">
+        <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F267" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G267" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -10155,17 +10140,17 @@
       <c r="C268" t="s">
         <v>446</v>
       </c>
-      <c r="D268" t="s">
-        <v>458</v>
+      <c r="D268">
+        <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F268" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G268" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -10178,17 +10163,17 @@
       <c r="C269" t="s">
         <v>447</v>
       </c>
-      <c r="D269" t="s">
-        <v>459</v>
+      <c r="D269">
+        <v>5</v>
       </c>
       <c r="E269" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F269" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G269" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10201,17 +10186,17 @@
       <c r="C270" t="s">
         <v>318</v>
       </c>
-      <c r="D270" t="s">
-        <v>459</v>
+      <c r="D270">
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F270" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G270" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10221,17 +10206,17 @@
       <c r="B271" t="s">
         <v>272</v>
       </c>
-      <c r="D271" t="s">
-        <v>459</v>
+      <c r="D271">
+        <v>5</v>
       </c>
       <c r="E271" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F271" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G271" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -10244,17 +10229,17 @@
       <c r="C272" t="s">
         <v>448</v>
       </c>
-      <c r="D272" t="s">
-        <v>460</v>
+      <c r="D272">
+        <v>4</v>
       </c>
       <c r="E272" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F272" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G272" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -10267,17 +10252,17 @@
       <c r="C273" t="s">
         <v>340</v>
       </c>
-      <c r="D273" t="s">
-        <v>460</v>
+      <c r="D273">
+        <v>4</v>
       </c>
       <c r="E273" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F273" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G273" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -10290,17 +10275,17 @@
       <c r="C274" t="s">
         <v>449</v>
       </c>
-      <c r="D274" t="s">
-        <v>459</v>
+      <c r="D274">
+        <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F274" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G274" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -10313,17 +10298,17 @@
       <c r="C275" t="s">
         <v>401</v>
       </c>
-      <c r="D275" t="s">
-        <v>459</v>
+      <c r="D275">
+        <v>5</v>
       </c>
       <c r="E275" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F275" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G275" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -10336,17 +10321,17 @@
       <c r="C276" t="s">
         <v>450</v>
       </c>
-      <c r="D276" t="s">
-        <v>461</v>
+      <c r="D276">
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F276" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G276" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10359,17 +10344,17 @@
       <c r="C277" t="s">
         <v>342</v>
       </c>
-      <c r="D277" t="s">
-        <v>459</v>
+      <c r="D277">
+        <v>5</v>
       </c>
       <c r="E277" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F277" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="G277" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -10382,17 +10367,17 @@
       <c r="C278" t="s">
         <v>451</v>
       </c>
-      <c r="D278" t="s">
-        <v>458</v>
+      <c r="D278">
+        <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F278" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G278" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -10405,17 +10390,17 @@
       <c r="C279" t="s">
         <v>414</v>
       </c>
-      <c r="D279" t="s">
-        <v>461</v>
+      <c r="D279">
+        <v>2</v>
       </c>
       <c r="E279" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F279" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G279" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -10425,17 +10410,17 @@
       <c r="B280" t="s">
         <v>281</v>
       </c>
-      <c r="D280" t="s">
-        <v>457</v>
+      <c r="D280">
+        <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F280" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G280" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -10448,17 +10433,17 @@
       <c r="C281" t="s">
         <v>452</v>
       </c>
-      <c r="D281" t="s">
-        <v>458</v>
+      <c r="D281">
+        <v>3</v>
       </c>
       <c r="E281" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F281" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="G281" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -10471,17 +10456,17 @@
       <c r="C282" t="s">
         <v>453</v>
       </c>
-      <c r="D282" t="s">
-        <v>461</v>
+      <c r="D282">
+        <v>2</v>
       </c>
       <c r="E282" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F282" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G282" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -10494,17 +10479,17 @@
       <c r="C283" t="s">
         <v>454</v>
       </c>
-      <c r="D283" t="s">
-        <v>459</v>
+      <c r="D283">
+        <v>5</v>
       </c>
       <c r="E283" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F283" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="G283" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -10517,17 +10502,17 @@
       <c r="C284" t="s">
         <v>455</v>
       </c>
-      <c r="D284" t="s">
-        <v>461</v>
+      <c r="D284">
+        <v>2</v>
       </c>
       <c r="E284" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F284" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G284" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -10540,17 +10525,17 @@
       <c r="C285" t="s">
         <v>456</v>
       </c>
-      <c r="D285" t="s">
-        <v>461</v>
+      <c r="D285">
+        <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F285" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G285" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/NYC_review_data.xlsx
+++ b/NYC_review_data.xlsx
@@ -1387,721 +1387,721 @@
     <t>Winnipeg, Canada</t>
   </si>
   <si>
-    <t>April 18, 2019</t>
-  </si>
-  <si>
-    <t>April 17, 2019</t>
-  </si>
-  <si>
-    <t>April 8, 2019</t>
-  </si>
-  <si>
-    <t>March 21, 2019</t>
-  </si>
-  <si>
-    <t>March 1, 2019</t>
-  </si>
-  <si>
-    <t>January 29, 2019</t>
-  </si>
-  <si>
-    <t>January 16, 2019</t>
-  </si>
-  <si>
-    <t>January 13, 2019</t>
-  </si>
-  <si>
-    <t>January 10, 2019</t>
-  </si>
-  <si>
-    <t>January 8, 2019</t>
-  </si>
-  <si>
-    <t>December 30, 2018</t>
-  </si>
-  <si>
-    <t>December 26, 2018</t>
-  </si>
-  <si>
-    <t>December 10, 2018</t>
-  </si>
-  <si>
-    <t>December 9, 2018</t>
-  </si>
-  <si>
-    <t>November 20, 2018</t>
-  </si>
-  <si>
-    <t>November 11, 2018</t>
-  </si>
-  <si>
-    <t>November 4, 2018</t>
-  </si>
-  <si>
-    <t>October 31, 2018</t>
-  </si>
-  <si>
-    <t>October 29, 2018</t>
-  </si>
-  <si>
-    <t>October 9, 2018</t>
-  </si>
-  <si>
-    <t>October 8, 2018</t>
-  </si>
-  <si>
-    <t>October 4, 2018</t>
-  </si>
-  <si>
-    <t>September 29, 2018</t>
-  </si>
-  <si>
-    <t>September 25, 2018</t>
-  </si>
-  <si>
-    <t>September 23, 2018</t>
-  </si>
-  <si>
-    <t>September 21, 2018</t>
-  </si>
-  <si>
-    <t>September 19, 2018</t>
-  </si>
-  <si>
-    <t>September 16, 2018</t>
-  </si>
-  <si>
-    <t>September 13, 2018</t>
-  </si>
-  <si>
-    <t>September 12, 2018</t>
-  </si>
-  <si>
-    <t>September 6, 2018</t>
-  </si>
-  <si>
-    <t>September 5, 2018</t>
-  </si>
-  <si>
-    <t>September 2, 2018</t>
-  </si>
-  <si>
-    <t>August 27, 2018</t>
-  </si>
-  <si>
-    <t>August 21, 2018</t>
-  </si>
-  <si>
-    <t>August 18, 2018</t>
-  </si>
-  <si>
-    <t>August 16, 2018</t>
-  </si>
-  <si>
-    <t>August 13, 2018</t>
-  </si>
-  <si>
-    <t>August 9, 2018</t>
-  </si>
-  <si>
-    <t>August 4, 2018</t>
-  </si>
-  <si>
-    <t>July 31, 2018</t>
-  </si>
-  <si>
-    <t>July 26, 2018</t>
-  </si>
-  <si>
-    <t>July 22, 2018</t>
-  </si>
-  <si>
-    <t>July 18, 2018</t>
-  </si>
-  <si>
-    <t>July 14, 2018</t>
-  </si>
-  <si>
-    <t>July 12, 2018</t>
-  </si>
-  <si>
-    <t>July 9, 2018</t>
-  </si>
-  <si>
-    <t>July 2, 2018</t>
-  </si>
-  <si>
-    <t>July 1, 2018</t>
-  </si>
-  <si>
-    <t>June 18, 2018</t>
-  </si>
-  <si>
-    <t>June 17, 2018</t>
-  </si>
-  <si>
-    <t>June 14, 2018</t>
-  </si>
-  <si>
-    <t>June 10, 2018</t>
-  </si>
-  <si>
-    <t>June 1, 2018</t>
-  </si>
-  <si>
-    <t>May 31, 2018</t>
-  </si>
-  <si>
-    <t>May 30, 2018</t>
-  </si>
-  <si>
-    <t>May 28, 2018</t>
-  </si>
-  <si>
-    <t>May 9, 2018</t>
-  </si>
-  <si>
-    <t>May 6, 2018</t>
-  </si>
-  <si>
-    <t>May 4, 2018</t>
-  </si>
-  <si>
-    <t>May 3, 2018</t>
-  </si>
-  <si>
-    <t>April 25, 2018</t>
-  </si>
-  <si>
-    <t>April 24, 2018</t>
-  </si>
-  <si>
-    <t>April 23, 2018</t>
-  </si>
-  <si>
-    <t>April 17, 2018</t>
-  </si>
-  <si>
-    <t>April 16, 2018</t>
-  </si>
-  <si>
-    <t>April 9, 2018</t>
-  </si>
-  <si>
-    <t>April 6, 2018</t>
-  </si>
-  <si>
-    <t>April 3, 2018</t>
-  </si>
-  <si>
-    <t>March 30, 2018</t>
-  </si>
-  <si>
-    <t>March 29, 2018</t>
-  </si>
-  <si>
-    <t>March 12, 2018</t>
-  </si>
-  <si>
-    <t>March 6, 2018</t>
-  </si>
-  <si>
-    <t>February 16, 2018</t>
-  </si>
-  <si>
-    <t>February 14, 2018</t>
-  </si>
-  <si>
-    <t>February 13, 2018</t>
-  </si>
-  <si>
-    <t>February 5, 2018</t>
-  </si>
-  <si>
-    <t>January 30, 2018</t>
-  </si>
-  <si>
-    <t>December 31, 2017</t>
-  </si>
-  <si>
-    <t>December 19, 2017</t>
-  </si>
-  <si>
-    <t>November 27, 2017</t>
-  </si>
-  <si>
-    <t>November 13, 2017</t>
-  </si>
-  <si>
-    <t>November 11, 2017</t>
-  </si>
-  <si>
-    <t>November 10, 2017</t>
-  </si>
-  <si>
-    <t>October 31, 2017</t>
-  </si>
-  <si>
-    <t>October 28, 2017</t>
-  </si>
-  <si>
-    <t>October 25, 2017</t>
-  </si>
-  <si>
-    <t>October 17, 2017</t>
-  </si>
-  <si>
-    <t>October 12, 2017</t>
-  </si>
-  <si>
-    <t>October 4, 2017</t>
-  </si>
-  <si>
-    <t>October 3, 2017</t>
-  </si>
-  <si>
-    <t>October 1, 2017</t>
-  </si>
-  <si>
-    <t>September 30, 2017</t>
-  </si>
-  <si>
-    <t>September 24, 2017</t>
-  </si>
-  <si>
-    <t>September 21, 2017</t>
-  </si>
-  <si>
-    <t>September 20, 2017</t>
-  </si>
-  <si>
-    <t>September 19, 2017</t>
-  </si>
-  <si>
-    <t>September 18, 2017</t>
-  </si>
-  <si>
-    <t>September 10, 2017</t>
-  </si>
-  <si>
-    <t>September 5, 2017</t>
-  </si>
-  <si>
-    <t>September 3, 2017</t>
-  </si>
-  <si>
-    <t>August 30, 2017</t>
-  </si>
-  <si>
-    <t>August 28, 2017</t>
-  </si>
-  <si>
-    <t>August 24, 2017</t>
-  </si>
-  <si>
-    <t>August 16, 2017</t>
-  </si>
-  <si>
-    <t>August 14, 2017</t>
-  </si>
-  <si>
-    <t>August 8, 2017</t>
-  </si>
-  <si>
-    <t>August 7, 2017</t>
-  </si>
-  <si>
-    <t>August 4, 2017</t>
-  </si>
-  <si>
-    <t>August 1, 2017</t>
-  </si>
-  <si>
-    <t>July 31, 2017</t>
-  </si>
-  <si>
-    <t>July 30, 2017</t>
-  </si>
-  <si>
-    <t>July 26, 2017</t>
-  </si>
-  <si>
-    <t>July 24, 2017</t>
-  </si>
-  <si>
-    <t>July 18, 2017</t>
-  </si>
-  <si>
-    <t>July 12, 2017</t>
-  </si>
-  <si>
-    <t>July 11, 2017</t>
-  </si>
-  <si>
-    <t>July 7, 2017</t>
-  </si>
-  <si>
-    <t>July 6, 2017</t>
-  </si>
-  <si>
-    <t>July 4, 2017</t>
-  </si>
-  <si>
-    <t>July 3, 2017</t>
-  </si>
-  <si>
-    <t>June 25, 2017</t>
-  </si>
-  <si>
-    <t>June 24, 2017</t>
-  </si>
-  <si>
-    <t>June 18, 2017</t>
-  </si>
-  <si>
-    <t>June 16, 2017</t>
-  </si>
-  <si>
-    <t>June 15, 2017</t>
-  </si>
-  <si>
-    <t>June 14, 2017</t>
-  </si>
-  <si>
-    <t>May 31, 2017</t>
-  </si>
-  <si>
-    <t>May 28, 2017</t>
-  </si>
-  <si>
-    <t>May 24, 2017</t>
-  </si>
-  <si>
-    <t>May 21, 2017</t>
-  </si>
-  <si>
-    <t>May 16, 2017</t>
-  </si>
-  <si>
-    <t>May 13, 2017</t>
-  </si>
-  <si>
-    <t>May 10, 2017</t>
-  </si>
-  <si>
-    <t>May 3, 2017</t>
-  </si>
-  <si>
-    <t>April 25, 2017</t>
-  </si>
-  <si>
-    <t>April 21, 2017</t>
-  </si>
-  <si>
-    <t>April 17, 2017</t>
-  </si>
-  <si>
-    <t>April 12, 2017</t>
-  </si>
-  <si>
-    <t>March 8, 2017</t>
-  </si>
-  <si>
-    <t>March 7, 2017</t>
-  </si>
-  <si>
-    <t>March 1, 2017</t>
-  </si>
-  <si>
-    <t>February 26, 2017</t>
-  </si>
-  <si>
-    <t>February 24, 2017</t>
-  </si>
-  <si>
-    <t>February 20, 2017</t>
-  </si>
-  <si>
-    <t>February 11, 2017</t>
-  </si>
-  <si>
-    <t>February 6, 2017</t>
-  </si>
-  <si>
-    <t>January 29, 2017</t>
-  </si>
-  <si>
-    <t>January 24, 2017</t>
-  </si>
-  <si>
-    <t>January 7, 2017</t>
-  </si>
-  <si>
-    <t>January 4, 2017</t>
-  </si>
-  <si>
-    <t>December 31, 2016</t>
-  </si>
-  <si>
-    <t>December 8, 2016</t>
-  </si>
-  <si>
-    <t>November 27, 2016</t>
-  </si>
-  <si>
-    <t>November 17, 2016</t>
-  </si>
-  <si>
-    <t>November 16, 2016</t>
-  </si>
-  <si>
-    <t>November 10, 2016</t>
-  </si>
-  <si>
-    <t>November 9, 2016</t>
-  </si>
-  <si>
-    <t>November 7, 2016</t>
-  </si>
-  <si>
-    <t>November 3, 2016</t>
-  </si>
-  <si>
-    <t>November 1, 2016</t>
-  </si>
-  <si>
-    <t>October 24, 2016</t>
-  </si>
-  <si>
-    <t>October 22, 2016</t>
-  </si>
-  <si>
-    <t>October 19, 2016</t>
-  </si>
-  <si>
-    <t>October 18, 2016</t>
-  </si>
-  <si>
-    <t>October 13, 2016</t>
-  </si>
-  <si>
-    <t>October 11, 2016</t>
-  </si>
-  <si>
-    <t>September 18, 2016</t>
-  </si>
-  <si>
-    <t>September 16, 2016</t>
-  </si>
-  <si>
-    <t>September 15, 2016</t>
-  </si>
-  <si>
-    <t>September 6, 2016</t>
-  </si>
-  <si>
-    <t>September 4, 2016</t>
-  </si>
-  <si>
-    <t>September 3, 2016</t>
-  </si>
-  <si>
-    <t>September 2, 2016</t>
-  </si>
-  <si>
-    <t>September 1, 2016</t>
-  </si>
-  <si>
-    <t>August 31, 2016</t>
-  </si>
-  <si>
-    <t>August 28, 2016</t>
-  </si>
-  <si>
-    <t>August 26, 2016</t>
-  </si>
-  <si>
-    <t>August 23, 2016</t>
-  </si>
-  <si>
-    <t>August 17, 2016</t>
-  </si>
-  <si>
-    <t>August 16, 2016</t>
-  </si>
-  <si>
-    <t>August 14, 2016</t>
-  </si>
-  <si>
-    <t>August 10, 2016</t>
-  </si>
-  <si>
-    <t>August 6, 2016</t>
-  </si>
-  <si>
-    <t>July 29, 2016</t>
-  </si>
-  <si>
-    <t>July 26, 2016</t>
-  </si>
-  <si>
-    <t>July 25, 2016</t>
-  </si>
-  <si>
-    <t>July 23, 2016</t>
-  </si>
-  <si>
-    <t>July 20, 2016</t>
-  </si>
-  <si>
-    <t>July 15, 2016</t>
-  </si>
-  <si>
-    <t>July 14, 2016</t>
-  </si>
-  <si>
-    <t>July 8, 2016</t>
-  </si>
-  <si>
-    <t>July 6, 2016</t>
-  </si>
-  <si>
-    <t>July 4, 2016</t>
-  </si>
-  <si>
-    <t>July 3, 2016</t>
-  </si>
-  <si>
-    <t>June 23, 2016</t>
-  </si>
-  <si>
-    <t>June 12, 2016</t>
-  </si>
-  <si>
-    <t>May 17, 2016</t>
-  </si>
-  <si>
-    <t>May 4, 2016</t>
-  </si>
-  <si>
-    <t>May 3, 2016</t>
-  </si>
-  <si>
-    <t>May 1, 2016</t>
-  </si>
-  <si>
-    <t>April 27, 2016</t>
-  </si>
-  <si>
-    <t>April 22, 2016</t>
-  </si>
-  <si>
-    <t>April 19, 2016</t>
-  </si>
-  <si>
-    <t>April 17, 2016</t>
-  </si>
-  <si>
-    <t>April 8, 2016</t>
-  </si>
-  <si>
-    <t>April 2, 2016</t>
-  </si>
-  <si>
-    <t>March 31, 2016</t>
-  </si>
-  <si>
-    <t>March 30, 2016</t>
-  </si>
-  <si>
-    <t>January 13, 2016</t>
-  </si>
-  <si>
-    <t>December 25, 2015</t>
-  </si>
-  <si>
-    <t>December 23, 2015</t>
-  </si>
-  <si>
-    <t>December 14, 2015</t>
-  </si>
-  <si>
-    <t>November 27, 2015</t>
-  </si>
-  <si>
-    <t>November 17, 2015</t>
-  </si>
-  <si>
-    <t>October 27, 2015</t>
-  </si>
-  <si>
-    <t>October 25, 2015</t>
-  </si>
-  <si>
-    <t>October 20, 2015</t>
-  </si>
-  <si>
-    <t>October 16, 2015</t>
-  </si>
-  <si>
-    <t>September 30, 2015</t>
-  </si>
-  <si>
-    <t>September 18, 2015</t>
-  </si>
-  <si>
-    <t>September 14, 2015</t>
-  </si>
-  <si>
-    <t>September 12, 2015</t>
-  </si>
-  <si>
-    <t>September 9, 2015</t>
-  </si>
-  <si>
-    <t>September 3, 2015</t>
-  </si>
-  <si>
-    <t>September 1, 2015</t>
-  </si>
-  <si>
-    <t>August 25, 2015</t>
-  </si>
-  <si>
-    <t>August 19, 2015</t>
-  </si>
-  <si>
-    <t>July 19, 2015</t>
-  </si>
-  <si>
-    <t>July 17, 2015</t>
-  </si>
-  <si>
-    <t>July 13, 2015</t>
-  </si>
-  <si>
-    <t>May 31, 2015</t>
-  </si>
-  <si>
-    <t>May 23, 2015</t>
-  </si>
-  <si>
-    <t>April 28, 2015</t>
-  </si>
-  <si>
-    <t>April 10, 2015</t>
-  </si>
-  <si>
-    <t>October 24, 2014</t>
-  </si>
-  <si>
-    <t>October 21, 2014</t>
-  </si>
-  <si>
-    <t>September 29, 2014</t>
-  </si>
-  <si>
-    <t>September 24, 2014</t>
+    <t>04/18/2019</t>
+  </si>
+  <si>
+    <t>04/17/2019</t>
+  </si>
+  <si>
+    <t>04/08/2019</t>
+  </si>
+  <si>
+    <t>03/21/2019</t>
+  </si>
+  <si>
+    <t>03/01/2019</t>
+  </si>
+  <si>
+    <t>01/29/2019</t>
+  </si>
+  <si>
+    <t>01/16/2019</t>
+  </si>
+  <si>
+    <t>01/13/2019</t>
+  </si>
+  <si>
+    <t>01/10/2019</t>
+  </si>
+  <si>
+    <t>01/08/2019</t>
+  </si>
+  <si>
+    <t>12/30/2018</t>
+  </si>
+  <si>
+    <t>12/26/2018</t>
+  </si>
+  <si>
+    <t>12/10/2018</t>
+  </si>
+  <si>
+    <t>12/09/2018</t>
+  </si>
+  <si>
+    <t>11/20/2018</t>
+  </si>
+  <si>
+    <t>11/11/2018</t>
+  </si>
+  <si>
+    <t>11/04/2018</t>
+  </si>
+  <si>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>10/29/2018</t>
+  </si>
+  <si>
+    <t>10/09/2018</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>10/04/2018</t>
+  </si>
+  <si>
+    <t>09/29/2018</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t>09/23/2018</t>
+  </si>
+  <si>
+    <t>09/21/2018</t>
+  </si>
+  <si>
+    <t>09/19/2018</t>
+  </si>
+  <si>
+    <t>09/16/2018</t>
+  </si>
+  <si>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>09/12/2018</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
   </si>
   <si>
     <t>Legal fraud, bunch of crooks</t>
